--- a/quronghui_Table/Class and rest[10.22--10.28] .xlsx
+++ b/quronghui_Table/Class and rest[10.22--10.28] .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018_Hardware_Files\quronghui_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57167A65-9F05-4AEB-9199-CF86E00F6ED3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA75CD-493B-447C-82F0-0ECA2D067C5D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
@@ -1310,6 +1310,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,52 +1332,40 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,19 +1679,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,16 +1709,16 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -1741,14 +1741,14 @@
       <c r="K3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -1779,8 +1779,8 @@
       <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1809,8 @@
       <c r="M5" s="49"/>
     </row>
     <row r="6" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -1861,8 +1861,8 @@
       <c r="M7" s="49"/>
     </row>
     <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1893,8 +1893,8 @@
       <c r="M8" s="49"/>
     </row>
     <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -1921,8 +1921,8 @@
       <c r="M9" s="49"/>
     </row>
     <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1985,7 +1985,7 @@
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -2021,10 +2021,10 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -2051,12 +2051,12 @@
       <c r="K15" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -2081,12 +2081,12 @@
       <c r="K16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -2107,12 +2107,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
     </row>
     <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -2133,12 +2133,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="21"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -2175,8 +2175,8 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
@@ -2229,10 +2229,10 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -2259,12 +2259,12 @@
       <c r="K24" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2287,12 +2287,12 @@
       <c r="K25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -2309,12 +2309,12 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" spans="2:13" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2339,12 +2339,12 @@
       <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
     </row>
     <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2365,12 +2365,12 @@
       <c r="K28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="25" t="s">
@@ -2385,12 +2385,12 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2405,19 +2405,12 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L24:M30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:B20"/>
@@ -2428,6 +2421,13 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="L4:M10"/>
+    <mergeCell ref="L24:M30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2439,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IT36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -2459,17 +2459,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
@@ -2483,10 +2483,10 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="2"/>
       <c r="E3" s="24" t="s">
         <v>0</v>
@@ -2504,10 +2504,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2525,8 +2525,8 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2578,8 +2578,8 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2595,8 +2595,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2610,8 +2610,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2657,7 +2657,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
@@ -2687,10 +2687,10 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2706,8 +2706,8 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2721,8 +2721,8 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2736,8 +2736,8 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2757,8 +2757,8 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2772,8 +2772,8 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2826,10 +2826,10 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="59" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2849,8 +2849,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2864,8 +2864,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2883,8 +2883,8 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2904,8 +2904,8 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="51"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2917,8 +2917,8 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="51"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="2"/>
       <c r="E29" s="24"/>
       <c r="F29" s="13"/>
@@ -2928,8 +2928,8 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="51"/>
-      <c r="C30" s="55"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2943,11 +2943,6 @@
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -2955,6 +2950,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2985,18 +2985,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="21"/>
     </row>
     <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,14 +3009,14 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
@@ -3032,14 +3032,14 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3063,8 +3063,8 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3084,8 +3084,8 @@
       <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3122,8 +3122,8 @@
       <c r="L7" s="49"/>
     </row>
     <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3141,8 +3141,8 @@
       <c r="L8" s="49"/>
     </row>
     <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3156,8 +3156,8 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3203,7 +3203,7 @@
       <c r="L12" s="21"/>
     </row>
     <row r="13" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3233,10 +3233,10 @@
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3271,12 +3271,12 @@
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3290,12 +3290,12 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3307,12 +3307,12 @@
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3322,12 +3322,12 @@
       <c r="H19" s="25"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3337,8 +3337,8 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
@@ -3384,10 +3384,10 @@
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3401,12 +3401,12 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3418,12 +3418,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -3435,12 +3435,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="2:12" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -3475,12 +3475,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -3511,20 +3511,12 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="K4:L10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
@@ -3534,6 +3526,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="K4:L10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3564,17 +3564,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3586,14 +3586,14 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>2</v>
@@ -3608,14 +3608,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -3634,8 +3634,8 @@
       <c r="K4" s="49"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -3652,8 +3652,8 @@
       <c r="K5" s="49"/>
     </row>
     <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="K6" s="49"/>
     </row>
     <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -3692,8 +3692,8 @@
       <c r="K7" s="49"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3710,8 +3710,8 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -3726,8 +3726,8 @@
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3776,7 +3776,7 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -3808,10 +3808,10 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -3828,12 +3828,12 @@
         <v>187</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3844,12 +3844,12 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -3858,12 +3858,12 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -3876,12 +3876,12 @@
       <c r="G18" s="25"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -3892,12 +3892,12 @@
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -3908,8 +3908,8 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
@@ -3954,10 +3954,10 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -3974,12 +3974,12 @@
         <v>188</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -3990,12 +3990,12 @@
       <c r="G25" s="21"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4004,12 +4004,12 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4040,12 +4040,12 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>80</v>
@@ -4056,12 +4056,12 @@
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4070,20 +4070,12 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
@@ -4093,6 +4085,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4121,15 +4121,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4143,10 +4143,10 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>3</v>
@@ -4162,10 +4162,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4185,8 +4185,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4199,8 +4199,8 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4223,8 +4223,8 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4240,8 +4240,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4253,8 +4253,8 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4292,7 +4292,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4314,10 +4314,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4331,8 +4331,8 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4348,8 +4348,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4365,8 +4365,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4378,8 +4378,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4389,8 +4389,8 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4431,10 +4431,10 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4448,8 +4448,8 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4461,8 +4461,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4474,8 +4474,8 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4493,8 +4493,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4506,8 +4506,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21"/>
       <c r="E29" s="25" t="s">
         <v>91</v>
@@ -4521,8 +4521,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4536,11 +4536,6 @@
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4548,6 +4543,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4575,15 +4575,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4595,10 +4595,10 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>4</v>
@@ -4615,10 +4615,10 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4639,8 +4639,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -4655,8 +4655,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -4683,8 +4683,8 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4702,8 +4702,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -4715,8 +4715,8 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -4754,7 +4754,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -4776,10 +4776,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -4797,8 +4797,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -4810,8 +4810,8 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -4823,8 +4823,8 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4838,8 +4838,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -4851,8 +4851,8 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -4893,10 +4893,10 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -4910,8 +4910,8 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -4921,8 +4921,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -4932,8 +4932,8 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -4945,8 +4945,8 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -4956,8 +4956,8 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -4965,8 +4965,8 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -4978,11 +4978,6 @@
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4990,6 +4985,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5016,15 +5016,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="35"/>
@@ -5036,10 +5036,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35" t="s">
         <v>28</v>
@@ -5055,10 +5055,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -5078,8 +5078,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="35" t="s">
         <v>5</v>
       </c>
@@ -5093,8 +5093,8 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="35" t="s">
         <v>6</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="36" t="s">
         <v>114</v>
       </c>
@@ -5117,8 +5117,8 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -5134,8 +5134,8 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="35" t="s">
         <v>5</v>
       </c>
@@ -5147,8 +5147,8 @@
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="35" t="s">
         <v>6</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -5182,7 +5182,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="35" t="s">
         <v>59</v>
       </c>
@@ -5204,10 +5204,10 @@
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="35" t="s">
@@ -5225,8 +5225,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="35" t="s">
         <v>5</v>
       </c>
@@ -5238,8 +5238,8 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="35" t="s">
         <v>6</v>
       </c>
@@ -5251,8 +5251,8 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="35" t="s">
@@ -5266,8 +5266,8 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="35" t="s">
         <v>5</v>
       </c>
@@ -5277,8 +5277,8 @@
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="35" t="s">
         <v>6</v>
       </c>
@@ -5319,10 +5319,10 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -5340,8 +5340,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="35" t="s">
         <v>5</v>
       </c>
@@ -5353,8 +5353,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="35" t="s">
         <v>6</v>
       </c>
@@ -5364,8 +5364,8 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -5379,8 +5379,8 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="35" t="s">
         <v>5</v>
       </c>
@@ -5392,8 +5392,8 @@
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -5401,8 +5401,8 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="35" t="s">
         <v>6</v>
       </c>
@@ -5414,18 +5414,18 @@
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5437,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IR36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5453,15 +5453,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -5473,10 +5473,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>128</v>
@@ -5492,10 +5492,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -5515,8 +5515,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
@@ -5530,8 +5530,8 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>114</v>
       </c>
@@ -5554,8 +5554,8 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -5569,8 +5569,8 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5582,8 +5582,8 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -5617,7 +5617,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
@@ -5639,10 +5639,10 @@
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5656,8 +5656,8 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
@@ -5669,8 +5669,8 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
@@ -5680,8 +5680,8 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5693,8 +5693,8 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="21" t="s">
         <v>5</v>
       </c>
@@ -5704,8 +5704,8 @@
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>6</v>
       </c>
@@ -5746,10 +5746,10 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -5763,8 +5763,8 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>5</v>
       </c>
@@ -5776,8 +5776,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
@@ -5787,8 +5787,8 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -5802,8 +5802,8 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21" t="s">
         <v>5</v>
       </c>
@@ -5815,8 +5815,8 @@
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -5824,8 +5824,8 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>6</v>
       </c>
@@ -5837,11 +5837,6 @@
     <row r="36" ht="87.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -5849,6 +5844,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quronghui_Table/Class and rest[10.22--10.28] .xlsx
+++ b/quronghui_Table/Class and rest[10.22--10.28] .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="课程时间表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="194">
   <si>
     <t>一</t>
   </si>
@@ -875,18 +875,10 @@
     <t xml:space="preserve">√ </t>
   </si>
   <si>
-    <t>看了一点，开了一上午的会</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>查找了ADS1299和OPENBCI的区别</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>完成情况 √  ×</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -895,10 +887,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>查找了ADS1299和OPENBCI的区别，重新绘制原理图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>没有进行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -906,37 +894,6 @@
     <t xml:space="preserve"> ×</t>
   </si>
   <si>
-    <t>没有上课，绘制SCH的原理图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制SCH的原理图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> √</t>
-  </si>
-  <si>
-    <t>没有上课</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态不是太好，周五晚上玩太长时间了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午再看小说</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上很衰</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周天在班聚，现在IC——book;看得相当少，这周得看大概160页</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>完成的还不错，完成了之后去的跑步</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -970,6 +927,18 @@
   </si>
   <si>
     <t>这段时间想给EEG，看脑电信号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了多路的EEG_V3.0，还差PCB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王富老哥和我说了：要努力</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1271,92 +1240,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1670,19 +1639,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="20"/>
     </row>
     <row r="2" spans="2:13" ht="20.25" customHeight="1">
@@ -1700,16 +1669,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
         <v>0</v>
@@ -1732,14 +1701,14 @@
       <c r="K3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -1770,8 +1739,8 @@
       <c r="M4" s="50"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1800,8 +1769,8 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +1799,7 @@
       <c r="M6" s="50"/>
     </row>
     <row r="7" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -1852,8 +1821,8 @@
       <c r="M7" s="50"/>
     </row>
     <row r="8" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -1884,8 +1853,8 @@
       <c r="M8" s="50"/>
     </row>
     <row r="9" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1912,8 +1881,8 @@
       <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1919,7 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -1976,7 +1945,7 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -2012,10 +1981,10 @@
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2042,12 +2011,12 @@
       <c r="K15" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -2072,12 +2041,12 @@
       <c r="K16" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -2098,12 +2067,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="24"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -2124,12 +2093,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -2146,12 +2115,12 @@
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2166,8 +2135,8 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" spans="2:13" ht="11.25" customHeight="1">
       <c r="B21" s="20"/>
@@ -2220,10 +2189,10 @@
       <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2250,12 +2219,12 @@
       <c r="K24" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -2278,12 +2247,12 @@
       <c r="K25" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -2300,12 +2269,12 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="2:13" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -2330,12 +2299,12 @@
       <c r="K27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -2356,12 +2325,12 @@
       <c r="K28" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="24" t="s">
@@ -2376,12 +2345,12 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -2396,19 +2365,12 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L24:M30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:B20"/>
@@ -2419,6 +2381,13 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="L4:M10"/>
+    <mergeCell ref="L24:M30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,17 +2419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="42" customHeight="1">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="2:10" ht="20.25" customHeight="1">
       <c r="B2" s="2"/>
@@ -2474,10 +2443,10 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2"/>
       <c r="E3" s="23" t="s">
         <v>0</v>
@@ -2495,10 +2464,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2516,8 +2485,8 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B5" s="52"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2533,8 +2502,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2519,7 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B7" s="52"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
@@ -2569,8 +2538,8 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2586,8 +2555,8 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2601,8 +2570,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2596,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2648,7 +2617,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B13" s="51"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="11" t="s">
         <v>59</v>
       </c>
@@ -2678,10 +2647,10 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2697,8 +2666,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2712,8 +2681,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2727,8 +2696,8 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="58" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2742,14 +2711,14 @@
         <v>168</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2763,8 +2732,8 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2801,10 +2770,10 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="24" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2821,10 +2790,10 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="60" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2842,8 +2811,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2857,8 +2826,8 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2870,14 +2839,14 @@
         <v>168</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="23.85" customHeight="1">
-      <c r="B27" s="52"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2895,8 +2864,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B28" s="52"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2908,8 +2877,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B29" s="52"/>
-      <c r="C29" s="56"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="2"/>
       <c r="E29" s="23"/>
       <c r="F29" s="12"/>
@@ -2919,8 +2888,8 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="52"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2934,11 +2903,6 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -2946,6 +2910,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2956,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -2976,18 +2945,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="2:12" ht="20.25" customHeight="1">
@@ -3000,14 +2969,14 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:12" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
         <v>1</v>
@@ -3023,14 +2992,14 @@
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -3054,8 +3023,8 @@
       <c r="L4" s="50"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3067,7 +3036,7 @@
         <v>168</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -3075,8 +3044,8 @@
       <c r="L5" s="50"/>
     </row>
     <row r="6" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -3092,7 +3061,7 @@
       <c r="L6" s="50"/>
     </row>
     <row r="7" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -3113,8 +3082,8 @@
       <c r="L7" s="50"/>
     </row>
     <row r="8" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -3132,8 +3101,8 @@
       <c r="L8" s="50"/>
     </row>
     <row r="9" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -3147,8 +3116,8 @@
       <c r="L9" s="50"/>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -3175,7 +3144,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -3194,7 +3163,7 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -3224,10 +3193,10 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -3237,20 +3206,20 @@
         <v>79</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="41" t="s">
-        <v>184</v>
+      <c r="G15" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -3262,12 +3231,12 @@
       <c r="H16" s="24"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -3281,12 +3250,12 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -3298,12 +3267,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -3313,12 +3282,12 @@
       <c r="H19" s="24"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -3328,8 +3297,8 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="2:12" ht="11.25" customHeight="1">
       <c r="B21" s="20"/>
@@ -3375,10 +3344,10 @@
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -3392,12 +3361,12 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -3409,12 +3378,12 @@
       <c r="H25" s="20"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -3426,12 +3395,12 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="2:12" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -3445,16 +3414,16 @@
         <v>175</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -3466,12 +3435,12 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
         <v>91</v>
@@ -3480,19 +3449,19 @@
       <c r="G29" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>199</v>
+      <c r="H29" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J29" s="20"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -3504,20 +3473,12 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="K4:L10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
@@ -3527,6 +3488,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="K4:L10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3538,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3557,17 +3526,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="2:11" ht="20.25" customHeight="1">
@@ -3579,14 +3548,14 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="2:11" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
         <v>2</v>
@@ -3601,14 +3570,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -3627,8 +3596,8 @@
       <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3645,8 +3614,8 @@
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3632,7 @@
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -3681,8 +3650,8 @@
       <c r="K7" s="50"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -3699,8 +3668,8 @@
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -3715,8 +3684,8 @@
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -3743,7 +3712,7 @@
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -3765,7 +3734,7 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -3797,10 +3766,10 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -3813,12 +3782,12 @@
       <c r="G15" s="12"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -3829,12 +3798,12 @@
       <c r="G16" s="24"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -3843,12 +3812,12 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -3861,12 +3830,12 @@
       <c r="G18" s="24"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -3877,12 +3846,12 @@
       <c r="G19" s="24"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -3893,8 +3862,8 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="2:11" ht="11.25" customHeight="1">
       <c r="B21" s="20"/>
@@ -3939,10 +3908,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -3952,17 +3921,19 @@
         <v>93</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="24"/>
+      <c r="G24" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="I24" s="24"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -3973,12 +3944,12 @@
       <c r="G25" s="20"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -3987,12 +3958,12 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
     </row>
     <row r="27" spans="2:11" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4005,12 +3976,12 @@
       <c r="G27" s="12"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -4021,12 +3992,12 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
         <v>80</v>
@@ -4035,12 +4006,12 @@
       <c r="G29" s="12"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -4049,20 +4020,12 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
@@ -4072,6 +4035,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4100,15 +4071,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1">
       <c r="B2" s="20"/>
@@ -4122,10 +4093,10 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
         <v>3</v>
@@ -4134,17 +4105,17 @@
         <v>134</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -4156,16 +4127,16 @@
       <c r="F4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>178</v>
+      <c r="G4" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -4178,8 +4149,8 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -4191,7 +4162,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -4202,8 +4173,8 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4219,8 +4190,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -4232,8 +4203,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -4254,7 +4225,7 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4271,7 +4242,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -4293,10 +4264,10 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -4306,12 +4277,12 @@
         <v>104</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="33"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -4319,16 +4290,16 @@
         <v>103</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="33" t="s">
-        <v>178</v>
+      <c r="G16" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -4340,12 +4311,12 @@
         <v>175</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4357,8 +4328,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -4368,8 +4339,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -4410,10 +4381,10 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -4427,8 +4398,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -4440,8 +4411,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -4453,8 +4424,8 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4464,16 +4435,16 @@
         <v>105</v>
       </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>182</v>
+      <c r="G27" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -4485,8 +4456,8 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
         <v>91</v>
@@ -4496,12 +4467,12 @@
         <v>175</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -4515,11 +4486,6 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4527,6 +4493,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4537,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4554,15 +4525,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
       <c r="B2" s="20"/>
@@ -4574,10 +4545,10 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
         <v>4</v>
@@ -4594,10 +4565,10 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -4609,17 +4580,13 @@
       <c r="F4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>188</v>
-      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -4634,8 +4601,8 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -4650,7 +4617,7 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -4662,8 +4629,8 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4674,15 +4641,15 @@
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -4694,8 +4661,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -4714,11 +4681,11 @@
       <c r="D11" s="20"/>
       <c r="E11" s="24"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4733,7 +4700,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -4755,10 +4722,10 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -4769,15 +4736,15 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -4789,8 +4756,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -4802,8 +4769,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4817,8 +4784,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -4830,8 +4797,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -4872,10 +4839,10 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -4889,8 +4856,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -4900,8 +4867,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -4911,8 +4878,8 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4924,8 +4891,8 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -4935,8 +4902,8 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -4944,8 +4911,8 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -4957,11 +4924,6 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4969,6 +4931,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4979,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4995,71 +4962,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>189</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -5068,158 +5031,154 @@
       <c r="F5" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>115</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="24" t="s">
-        <v>176</v>
-      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="34" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>190</v>
-      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="34" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="34" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -5230,98 +5189,94 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="34" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" ht="11.25" customHeight="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="34" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -5332,79 +5287,79 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="34" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="34" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="34" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="24"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5417,7 +5372,7 @@
   <dimension ref="A1:IR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G4" sqref="G4:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5432,15 +5387,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1">
       <c r="B2" s="20"/>
@@ -5452,10 +5407,10 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
         <v>128</v>
@@ -5471,10 +5426,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -5486,16 +5441,12 @@
       <c r="F4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>192</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -5509,8 +5460,8 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -5522,7 +5473,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -5533,8 +5484,8 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -5548,8 +5499,8 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -5561,8 +5512,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -5581,7 +5532,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5596,7 +5547,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -5618,10 +5569,10 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -5635,8 +5586,8 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -5648,8 +5599,8 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -5659,8 +5610,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -5672,8 +5623,8 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -5683,8 +5634,8 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -5725,10 +5676,10 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -5742,8 +5693,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -5755,8 +5706,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -5766,8 +5717,8 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -5781,8 +5732,8 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -5794,8 +5745,8 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -5803,8 +5754,8 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -5816,11 +5767,6 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -5828,6 +5774,11 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quronghui_Table/Class and rest[10.22--10.28] .xlsx
+++ b/quronghui_Table/Class and rest[10.22--10.28] .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="206">
   <si>
     <t>一</t>
   </si>
@@ -938,7 +938,54 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> √</t>
+  </si>
+  <si>
+    <t>基本上能保持50分钟左右的专注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>王富老哥和我说了：要努力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学（主校区）硕士研究生课程表，王富老哥和我说了：要努力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王富老哥和我说了：要努力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00--9:50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:20-10:40</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二段时间的休息时间，不要太长，也不要听啥音乐，不然第二段时间就不想学了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:50-11:30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选一下老哥结婚用的材料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:00</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑去聊天去了</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -946,7 +993,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -1088,6 +1135,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1143,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,9 +1323,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,23 +1357,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,23 +1392,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1669,10 +1737,10 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" ht="29.25" customHeight="1">
       <c r="B3" s="47" t="s">
@@ -1701,14 +1769,14 @@
       <c r="K3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -1735,12 +1803,12 @@
       <c r="K4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1765,12 +1833,12 @@
       <c r="K5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -1795,11 +1863,11 @@
       <c r="K6" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -1817,12 +1885,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -1849,12 +1917,12 @@
       <c r="K8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1877,12 +1945,12 @@
       <c r="K9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -1901,8 +1969,8 @@
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" customHeight="1">
       <c r="B11" s="20"/>
@@ -1919,7 +1987,7 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -1945,7 +2013,7 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -1981,10 +2049,10 @@
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2011,12 +2079,12 @@
       <c r="K15" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -2041,12 +2109,12 @@
       <c r="K16" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -2067,12 +2135,12 @@
         <v>123</v>
       </c>
       <c r="K17" s="24"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
     </row>
     <row r="18" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -2093,12 +2161,12 @@
         <v>125</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -2115,12 +2183,12 @@
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
     </row>
     <row r="20" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2135,8 +2203,8 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="2:13" ht="11.25" customHeight="1">
       <c r="B21" s="20"/>
@@ -2189,10 +2257,10 @@
       <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2219,12 +2287,12 @@
       <c r="K24" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -2247,12 +2315,12 @@
       <c r="K25" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="2:13" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -2269,12 +2337,12 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="27" spans="2:13" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -2299,12 +2367,12 @@
       <c r="K27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
     </row>
     <row r="28" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -2325,12 +2393,12 @@
       <c r="K28" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
     </row>
     <row r="29" spans="2:13" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="24" t="s">
@@ -2345,12 +2413,12 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -2365,12 +2433,19 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L24:M30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:B20"/>
@@ -2381,13 +2456,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="L4:M10"/>
-    <mergeCell ref="L24:M30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2419,17 +2487,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="42" customHeight="1">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="2:10" ht="20.25" customHeight="1">
       <c r="B2" s="2"/>
@@ -2443,10 +2511,10 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="2"/>
       <c r="E3" s="23" t="s">
         <v>0</v>
@@ -2464,10 +2532,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2485,8 +2553,8 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2502,8 +2570,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="55"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2519,7 +2587,7 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
@@ -2538,8 +2606,8 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B8" s="55"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2555,8 +2623,8 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2570,8 +2638,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2596,7 +2664,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2617,7 +2685,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="33.75" customHeight="1">
-      <c r="B13" s="59"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="11" t="s">
         <v>59</v>
       </c>
@@ -2647,10 +2715,10 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2666,8 +2734,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2681,8 +2749,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2696,8 +2764,8 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B18" s="55"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2717,8 +2785,8 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2732,8 +2800,8 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2790,10 +2858,10 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="58" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2811,8 +2879,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2826,8 +2894,8 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2845,8 +2913,8 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="23.85" customHeight="1">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2864,8 +2932,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B28" s="55"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2877,8 +2945,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B29" s="55"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="2"/>
       <c r="E29" s="23"/>
       <c r="F29" s="12"/>
@@ -2888,8 +2956,8 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="55"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2903,6 +2971,11 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -2910,11 +2983,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,8 +3037,8 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:12" ht="29.25" customHeight="1">
       <c r="B3" s="47" t="s">
@@ -2992,14 +3060,14 @@
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -3019,12 +3087,12 @@
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3040,12 +3108,12 @@
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -3057,11 +3125,11 @@
       <c r="H6" s="12"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -3078,12 +3146,12 @@
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -3097,12 +3165,12 @@
       <c r="H8" s="15"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -3112,12 +3180,12 @@
       <c r="H9" s="24"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -3127,8 +3195,8 @@
       <c r="H10" s="24"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1">
       <c r="B11" s="20"/>
@@ -3144,7 +3212,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -3163,7 +3231,7 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:12" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -3193,10 +3261,10 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -3214,12 +3282,12 @@
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -3231,12 +3299,12 @@
       <c r="H16" s="24"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -3250,12 +3318,12 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -3267,12 +3335,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -3282,12 +3350,12 @@
       <c r="H19" s="24"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -3297,8 +3365,8 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="2:12" ht="11.25" customHeight="1">
       <c r="B21" s="20"/>
@@ -3344,10 +3412,10 @@
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -3361,12 +3429,12 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -3378,12 +3446,12 @@
       <c r="H25" s="20"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -3395,12 +3463,12 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -3418,12 +3486,12 @@
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -3435,12 +3503,12 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
         <v>91</v>
@@ -3456,12 +3524,12 @@
         <v>189</v>
       </c>
       <c r="J29" s="20"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -3473,12 +3541,20 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="K4:L10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="K24:L30"/>
@@ -3488,14 +3564,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K15:L20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="K4:L10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3548,8 +3616,8 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:11" ht="29.25" customHeight="1">
       <c r="B3" s="47" t="s">
@@ -3570,14 +3638,14 @@
         <v>154</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -3592,12 +3660,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="12"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -3610,12 +3678,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="12"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -3628,11 +3696,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="12"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -3646,12 +3714,12 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -3664,12 +3732,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -3680,12 +3748,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -3696,8 +3764,8 @@
       <c r="G10" s="2"/>
       <c r="H10" s="11"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" customHeight="1">
       <c r="B11" s="20"/>
@@ -3712,7 +3780,7 @@
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -3734,7 +3802,7 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -3766,10 +3834,10 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -3782,12 +3850,12 @@
       <c r="G15" s="12"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -3798,12 +3866,12 @@
       <c r="G16" s="24"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -3812,12 +3880,12 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -3830,12 +3898,12 @@
       <c r="G18" s="24"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -3846,12 +3914,12 @@
       <c r="G19" s="24"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -3862,8 +3930,8 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11" ht="11.25" customHeight="1">
       <c r="B21" s="20"/>
@@ -3908,10 +3976,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -3928,12 +3996,12 @@
         <v>190</v>
       </c>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -3944,12 +4012,12 @@
       <c r="G25" s="20"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="2:11" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -3958,12 +4026,12 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="2:11" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -3976,12 +4044,12 @@
       <c r="G27" s="12"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -3992,12 +4060,12 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
     </row>
     <row r="29" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
         <v>80</v>
@@ -4006,12 +4074,12 @@
       <c r="G29" s="12"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -4020,12 +4088,20 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
     </row>
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="J24:K30"/>
@@ -4035,14 +4111,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="J15:K20"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4112,10 +4180,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -4135,8 +4203,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -4149,8 +4217,8 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -4162,7 +4230,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -4173,8 +4241,8 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4190,8 +4258,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -4203,8 +4271,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -4225,7 +4293,7 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4242,7 +4310,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -4264,10 +4332,10 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -4281,8 +4349,8 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -4298,8 +4366,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -4315,8 +4383,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4328,8 +4396,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -4339,8 +4407,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -4381,10 +4449,10 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -4398,8 +4466,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -4411,8 +4479,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -4424,8 +4492,8 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4443,8 +4511,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -4456,8 +4524,8 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
         <v>91</v>
@@ -4471,8 +4539,8 @@
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -4486,6 +4554,11 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4493,11 +4566,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4565,10 +4633,10 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -4585,8 +4653,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -4601,8 +4669,8 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -4617,7 +4685,7 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -4629,8 +4697,8 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4648,8 +4716,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -4661,8 +4729,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -4685,7 +4753,7 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4700,7 +4768,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -4722,10 +4790,10 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -4743,8 +4811,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -4756,8 +4824,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -4769,8 +4837,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4784,8 +4852,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -4797,8 +4865,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -4839,10 +4907,10 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -4856,8 +4924,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -4867,8 +4935,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -4878,8 +4946,8 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4891,8 +4959,8 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -4902,8 +4970,8 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -4911,8 +4979,8 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -4924,6 +4992,11 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -4931,11 +5004,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4946,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4963,7 +5031,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="42" customHeight="1">
       <c r="B1" s="46" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -5001,10 +5069,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -5016,12 +5084,16 @@
       <c r="F4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="33" t="s">
         <v>5</v>
       </c>
@@ -5035,34 +5107,44 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="34" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="45" t="s">
+        <v>200</v>
+      </c>
       <c r="F7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -5076,21 +5158,23 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="33" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5193,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -5124,7 +5208,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="33" t="s">
         <v>59</v>
       </c>
@@ -5146,10 +5230,10 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -5159,12 +5243,16 @@
         <v>73</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
@@ -5176,8 +5264,8 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
@@ -5189,8 +5277,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -5204,8 +5292,8 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="33" t="s">
         <v>5</v>
       </c>
@@ -5215,8 +5303,8 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="33" t="s">
         <v>6</v>
       </c>
@@ -5257,10 +5345,10 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -5274,8 +5362,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="33" t="s">
         <v>5</v>
       </c>
@@ -5287,8 +5375,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="33" t="s">
         <v>6</v>
       </c>
@@ -5298,8 +5386,8 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -5313,8 +5401,8 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="33" t="s">
         <v>5</v>
       </c>
@@ -5326,8 +5414,8 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
@@ -5335,8 +5423,8 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="33" t="s">
         <v>6</v>
       </c>
@@ -5348,18 +5436,18 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5426,10 +5514,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -5445,8 +5533,8 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
@@ -5460,8 +5548,8 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
@@ -5473,7 +5561,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="26" t="s">
         <v>114</v>
       </c>
@@ -5484,8 +5572,8 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -5499,8 +5587,8 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
         <v>5</v>
       </c>
@@ -5512,8 +5600,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
@@ -5532,7 +5620,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5547,7 +5635,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="20" t="s">
         <v>59</v>
       </c>
@@ -5569,10 +5657,10 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -5586,8 +5674,8 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20" t="s">
         <v>5</v>
       </c>
@@ -5599,8 +5687,8 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="20" t="s">
         <v>6</v>
       </c>
@@ -5610,8 +5698,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -5623,8 +5711,8 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
@@ -5634,8 +5722,8 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
@@ -5676,10 +5764,10 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -5693,8 +5781,8 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
@@ -5706,8 +5794,8 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="19.149999999999999" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
@@ -5717,8 +5805,8 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" ht="23.85" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -5732,8 +5820,8 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20" t="s">
         <v>5</v>
       </c>
@@ -5745,8 +5833,8 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -5754,8 +5842,8 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="20" t="s">
         <v>6</v>
       </c>
@@ -5767,6 +5855,11 @@
     <row r="36" ht="87.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C17"/>
@@ -5774,11 +5867,6 @@
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5787,10 +5875,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5804,70 +5892,54 @@
     <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" ht="35.25">
+      <c r="A1" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+    </row>
+    <row r="2" spans="1:8" ht="35.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F3" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="62"/>
-      <c r="B2" s="5" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="67"/>
+      <c r="B4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="62"/>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="62"/>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -5877,190 +5949,230 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="67"/>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="67"/>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+    <row r="7" spans="1:8" ht="7.5" customHeight="1"/>
+    <row r="8" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A8" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="63" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="5" t="s">
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="9.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A12" s="61" t="s">
+    <row r="13" spans="1:8" ht="9.75" customHeight="1"/>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A14" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="61"/>
-      <c r="B13" s="7" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="66"/>
+      <c r="B15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="61"/>
-      <c r="B14" s="3" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="66"/>
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="61"/>
-      <c r="B15" s="3" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="66"/>
+      <c r="B17" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="61"/>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="61"/>
-      <c r="B17" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="61"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="66"/>
       <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="66"/>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="8.25" customHeight="1"/>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="8.25" customHeight="1"/>
+    <row r="22" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A22" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="62"/>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="67"/>
+      <c r="B23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="62"/>
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="67"/>
+      <c r="B24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A12:A18"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A20"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>